--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dll1</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll1</t>
-  </si>
-  <si>
-    <t>Notch2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H2">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I2">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J2">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>21.158050496691</v>
+        <v>53.65172663587276</v>
       </c>
       <c r="R2">
-        <v>84.63220198676402</v>
+        <v>214.606906543491</v>
       </c>
       <c r="S2">
-        <v>0.004365311836737099</v>
+        <v>0.01339584570263351</v>
       </c>
       <c r="T2">
-        <v>0.002756882222433221</v>
+        <v>0.009195772633903273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H3">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I3">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J3">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>277.300690758865</v>
+        <v>245.2098850834325</v>
       </c>
       <c r="R3">
-        <v>1663.80414455319</v>
+        <v>1471.259310500595</v>
       </c>
       <c r="S3">
-        <v>0.05721245385506396</v>
+        <v>0.06122438160530454</v>
       </c>
       <c r="T3">
-        <v>0.05419818886960744</v>
+        <v>0.06304254752460628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H4">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I4">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J4">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>723.1853285891989</v>
+        <v>886.6833809718501</v>
       </c>
       <c r="R4">
-        <v>4339.111971535193</v>
+        <v>5320.1002858311</v>
       </c>
       <c r="S4">
-        <v>0.1492070110872816</v>
+        <v>0.2213884715994675</v>
       </c>
       <c r="T4">
-        <v>0.1413459696740892</v>
+        <v>0.2279629924592025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H5">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I5">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J5">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>494.173437290949</v>
+        <v>254.167892099814</v>
       </c>
       <c r="R5">
-        <v>1976.693749163796</v>
+        <v>1016.671568399256</v>
       </c>
       <c r="S5">
-        <v>0.1019574632145157</v>
+        <v>0.0634610305878989</v>
       </c>
       <c r="T5">
-        <v>0.06439052427250816</v>
+        <v>0.04356374516054434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H6">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I6">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J6">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>28.429803049673</v>
+        <v>1143.337029134339</v>
       </c>
       <c r="R6">
-        <v>170.578818298038</v>
+        <v>6860.022174806031</v>
       </c>
       <c r="S6">
-        <v>0.005865613932070505</v>
+        <v>0.2854701495878866</v>
       </c>
       <c r="T6">
-        <v>0.005556581308886119</v>
+        <v>0.2939476888189842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.750533</v>
+        <v>14.8120665</v>
       </c>
       <c r="H7">
-        <v>33.501066</v>
+        <v>29.624133</v>
       </c>
       <c r="I7">
-        <v>0.493048057184612</v>
+        <v>0.7564316445551218</v>
       </c>
       <c r="J7">
-        <v>0.4334978856198783</v>
+        <v>0.7525154565482953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>845.4870504656781</v>
+        <v>446.5358780651615</v>
       </c>
       <c r="R7">
-        <v>5072.922302794069</v>
+        <v>2679.215268390969</v>
       </c>
       <c r="S7">
-        <v>0.1744402032589431</v>
+        <v>0.1114917654719309</v>
       </c>
       <c r="T7">
-        <v>0.1652497392723541</v>
+        <v>0.1148027099510546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J8">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>0.2475164723273334</v>
+        <v>0.7097822560303334</v>
       </c>
       <c r="R8">
-        <v>1.485098833964</v>
+        <v>4.258693536182</v>
       </c>
       <c r="S8">
-        <v>5.106739803872293E-05</v>
+        <v>0.0001772195263869124</v>
       </c>
       <c r="T8">
-        <v>4.837688820328666E-05</v>
+        <v>0.0001824823725711123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J9">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>3.243989268354444</v>
@@ -1013,10 +1013,10 @@
         <v>29.19590341519</v>
       </c>
       <c r="S9">
-        <v>0.0006692972376453341</v>
+        <v>0.0008099642346052561</v>
       </c>
       <c r="T9">
-        <v>0.0009510524977927762</v>
+        <v>0.001251026325161995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J10">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>8.460150021821555</v>
+        <v>11.73032388691111</v>
       </c>
       <c r="R10">
-        <v>76.14135019639399</v>
+        <v>105.5729149822</v>
       </c>
       <c r="S10">
-        <v>0.001745491298293531</v>
+        <v>0.00292884532677671</v>
       </c>
       <c r="T10">
-        <v>0.002480293904929118</v>
+        <v>0.00452373382623625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J11">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>5.781065034099334</v>
+        <v>3.362498677618667</v>
       </c>
       <c r="R11">
-        <v>34.686390204596</v>
+        <v>20.174992065712</v>
       </c>
       <c r="S11">
-        <v>0.001192744654156467</v>
+        <v>0.0008395538463541594</v>
       </c>
       <c r="T11">
-        <v>0.001129904342207567</v>
+        <v>0.0008644858775292617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J12">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>0.3325847322708889</v>
+        <v>15.12570772325133</v>
       </c>
       <c r="R12">
-        <v>2.993262590438</v>
+        <v>136.131369509262</v>
       </c>
       <c r="S12">
-        <v>6.861861251003295E-05</v>
+        <v>0.003776609990186774</v>
       </c>
       <c r="T12">
-        <v>9.750511305310843E-05</v>
+        <v>0.005833144620139971</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.587866</v>
       </c>
       <c r="I13">
-        <v>0.005767899827125682</v>
+        <v>0.01000716645801451</v>
       </c>
       <c r="J13">
-        <v>0.007606882360931899</v>
+        <v>0.01493303623026605</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>9.890891042274223</v>
+        <v>5.907419253859779</v>
       </c>
       <c r="R13">
-        <v>89.018019380468</v>
+        <v>53.166773284738</v>
       </c>
       <c r="S13">
-        <v>0.002040680626481594</v>
+        <v>0.001474973533704703</v>
       </c>
       <c r="T13">
-        <v>0.002899749614746042</v>
+        <v>0.002278163208627462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H14">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I14">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J14">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>9.964741957269</v>
+        <v>16.53743841860575</v>
       </c>
       <c r="R14">
-        <v>39.858967829076</v>
+        <v>66.14975367442301</v>
       </c>
       <c r="S14">
-        <v>0.002055917487431094</v>
+        <v>0.004129093083545316</v>
       </c>
       <c r="T14">
-        <v>0.001298400339739511</v>
+        <v>0.002834475853438702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H15">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I15">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J15">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>130.599453310535</v>
+        <v>75.58271892575584</v>
       </c>
       <c r="R15">
-        <v>783.59671986321</v>
+        <v>453.496313554535</v>
       </c>
       <c r="S15">
-        <v>0.02694517339851486</v>
+        <v>0.01887160962007076</v>
       </c>
       <c r="T15">
-        <v>0.02552555429062007</v>
+        <v>0.01943203532881498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H16">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I16">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J16">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>340.596369585241</v>
+        <v>273.3084791313834</v>
       </c>
       <c r="R16">
-        <v>2043.578217511446</v>
+        <v>1639.8508747883</v>
       </c>
       <c r="S16">
-        <v>0.07027156702989552</v>
+        <v>0.068240081824645</v>
       </c>
       <c r="T16">
-        <v>0.06656927653720016</v>
+        <v>0.07026659132708123</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H17">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I17">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J17">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>232.739343613491</v>
+        <v>78.343906657742</v>
       </c>
       <c r="R17">
-        <v>930.957374453964</v>
+        <v>313.375626630968</v>
       </c>
       <c r="S17">
-        <v>0.04801859281455485</v>
+        <v>0.01956102722380841</v>
       </c>
       <c r="T17">
-        <v>0.03032580714225813</v>
+        <v>0.01342795093559279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H18">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I18">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J18">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>13.389496888207</v>
+        <v>352.4185873708406</v>
       </c>
       <c r="R18">
-        <v>80.33698132924201</v>
+        <v>2114.511524225043</v>
       </c>
       <c r="S18">
-        <v>0.002762510150128704</v>
+        <v>0.0879924154389342</v>
       </c>
       <c r="T18">
-        <v>0.002616966006215636</v>
+        <v>0.09060550530139265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.888947</v>
+        <v>4.5656245</v>
       </c>
       <c r="H19">
-        <v>15.777894</v>
+        <v>9.131249</v>
       </c>
       <c r="I19">
-        <v>0.2322093268066379</v>
+        <v>0.2331600961254229</v>
       </c>
       <c r="J19">
-        <v>0.2041631656895504</v>
+        <v>0.231952982728344</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>398.196435320002</v>
+        <v>137.6388058359928</v>
       </c>
       <c r="R19">
-        <v>2389.178611920012</v>
+        <v>825.832835015957</v>
       </c>
       <c r="S19">
-        <v>0.08215556592611289</v>
+        <v>0.03436586893441924</v>
       </c>
       <c r="T19">
-        <v>0.0778271613735169</v>
+        <v>0.03538642398202364</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H20">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I20">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J20">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>11.500377239376</v>
+        <v>0.028448472129</v>
       </c>
       <c r="R20">
-        <v>69.002263436256</v>
+        <v>0.170690832774</v>
       </c>
       <c r="S20">
-        <v>0.002372748514700888</v>
+        <v>7.103058317249898E-06</v>
       </c>
       <c r="T20">
-        <v>0.00224773914549475</v>
+        <v>7.313996153069827E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H21">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I21">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J21">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>150.72572744664</v>
+        <v>0.13002091487</v>
       </c>
       <c r="R21">
-        <v>1356.53154701976</v>
+        <v>1.17018823383</v>
       </c>
       <c r="S21">
-        <v>0.03109760997245607</v>
+        <v>3.246382219037849E-05</v>
       </c>
       <c r="T21">
-        <v>0.04418882669191915</v>
+        <v>5.014183891136235E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H22">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I22">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J22">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>393.084613067664</v>
+        <v>0.4701579806</v>
       </c>
       <c r="R22">
-        <v>3537.761517608975</v>
+        <v>4.2314218254</v>
       </c>
       <c r="S22">
-        <v>0.08110089890048511</v>
+        <v>0.0001173897683987726</v>
       </c>
       <c r="T22">
-        <v>0.1152420899627532</v>
+        <v>0.0001813137967049949</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H23">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I23">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J23">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>268.606077455664</v>
+        <v>0.134770838664</v>
       </c>
       <c r="R23">
-        <v>1611.636464733984</v>
+        <v>0.8086250319839999</v>
       </c>
       <c r="S23">
-        <v>0.05541858828251269</v>
+        <v>3.364979047571505E-05</v>
       </c>
       <c r="T23">
-        <v>0.05249883394674191</v>
+        <v>3.464908031140509E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H24">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I24">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J24">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>15.452910463728</v>
+        <v>0.606246874926</v>
       </c>
       <c r="R24">
-        <v>139.076194173552</v>
+        <v>5.456221874334</v>
       </c>
       <c r="S24">
-        <v>0.003188231967302481</v>
+        <v>0.0001513686530413066</v>
       </c>
       <c r="T24">
-        <v>0.004530387704442576</v>
+        <v>0.0002337957179692957</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>9.104687999999999</v>
+        <v>0.007854</v>
       </c>
       <c r="H25">
-        <v>27.314064</v>
+        <v>0.023562</v>
       </c>
       <c r="I25">
-        <v>0.2679943814129407</v>
+        <v>0.000401092861440767</v>
       </c>
       <c r="J25">
-        <v>0.3534391709113386</v>
+        <v>0.0005985244930945637</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>459.561245157408</v>
+        <v>0.236772687074</v>
       </c>
       <c r="R25">
-        <v>4136.051206416672</v>
+        <v>2.130954183666</v>
       </c>
       <c r="S25">
-        <v>0.09481630377548346</v>
+        <v>5.911776901734444E-05</v>
       </c>
       <c r="T25">
-        <v>0.134731293459987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J26">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.263127</v>
-      </c>
-      <c r="N26">
-        <v>2.526254</v>
-      </c>
-      <c r="O26">
-        <v>0.008853724851211806</v>
-      </c>
-      <c r="P26">
-        <v>0.006359620920621169</v>
-      </c>
-      <c r="Q26">
-        <v>0.04206886577733333</v>
-      </c>
-      <c r="R26">
-        <v>0.252413194664</v>
-      </c>
-      <c r="S26">
-        <v>8.679614304003022E-06</v>
-      </c>
-      <c r="T26">
-        <v>8.222324750401602E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J27">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>16.55473833333333</v>
-      </c>
-      <c r="N27">
-        <v>49.664215</v>
-      </c>
-      <c r="O27">
-        <v>0.1160382908346841</v>
-      </c>
-      <c r="P27">
-        <v>0.1250252669447441</v>
-      </c>
-      <c r="Q27">
-        <v>0.5513610784377777</v>
-      </c>
-      <c r="R27">
-        <v>4.96224970594</v>
-      </c>
-      <c r="S27">
-        <v>0.0001137563710038873</v>
-      </c>
-      <c r="T27">
-        <v>0.0001616445948047055</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J28">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>43.17386966666666</v>
-      </c>
-      <c r="N28">
-        <v>129.521609</v>
-      </c>
-      <c r="O28">
-        <v>0.3026216388302571</v>
-      </c>
-      <c r="P28">
-        <v>0.3260591905124801</v>
-      </c>
-      <c r="Q28">
-        <v>1.437920120538222</v>
-      </c>
-      <c r="R28">
-        <v>12.941281084844</v>
-      </c>
-      <c r="S28">
-        <v>0.0002966705143013823</v>
-      </c>
-      <c r="T28">
-        <v>0.0004215604335084828</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J29">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>29.501953</v>
-      </c>
-      <c r="N29">
-        <v>59.003906</v>
-      </c>
-      <c r="O29">
-        <v>0.2067901125028462</v>
-      </c>
-      <c r="P29">
-        <v>0.1485371126561165</v>
-      </c>
-      <c r="Q29">
-        <v>0.9825723786493333</v>
-      </c>
-      <c r="R29">
-        <v>5.895434271896</v>
-      </c>
-      <c r="S29">
-        <v>0.0002027235371065814</v>
-      </c>
-      <c r="T29">
-        <v>0.0001920429524007363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J30">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.697247666666667</v>
-      </c>
-      <c r="N30">
-        <v>5.091743</v>
-      </c>
-      <c r="O30">
-        <v>0.0118966373492356</v>
-      </c>
-      <c r="P30">
-        <v>0.01281801248220741</v>
-      </c>
-      <c r="Q30">
-        <v>0.05652739928755555</v>
-      </c>
-      <c r="R30">
-        <v>0.508746593588</v>
-      </c>
-      <c r="S30">
-        <v>1.166268722387832E-05</v>
-      </c>
-      <c r="T30">
-        <v>1.657234960996959E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.03330533333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.09991599999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.0009803347686838321</v>
-      </c>
-      <c r="J31">
-        <v>0.001292895418300891</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>50.47523266666667</v>
-      </c>
-      <c r="N31">
-        <v>151.425698</v>
-      </c>
-      <c r="O31">
-        <v>0.3537995956317652</v>
-      </c>
-      <c r="P31">
-        <v>0.3812007964838307</v>
-      </c>
-      <c r="Q31">
-        <v>1.681094449040889</v>
-      </c>
-      <c r="R31">
-        <v>15.129850041368</v>
-      </c>
-      <c r="S31">
-        <v>0.0003468420447440998</v>
-      </c>
-      <c r="T31">
-        <v>0.000492852763226595</v>
+        <v>9.131006304443575E-05</v>
       </c>
     </row>
   </sheetData>
